--- a/config_3.23/activity_exchange_server.xlsx
+++ b/config_3.23/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="396">
   <si>
     <t>id|</t>
   </si>
@@ -1875,6 +1875,26 @@
   </si>
   <si>
     <t>6,6</t>
+  </si>
+  <si>
+    <t>月末狂欢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo收集</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2442,10 +2462,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3936,77 +3956,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="37" customFormat="1">
-      <c r="A48" s="32">
+    <row r="48" spans="1:16" s="16" customFormat="1">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="7">
         <v>1615852800</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="7">
         <v>1616428799</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="34" t="s">
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H48" s="35">
-        <v>1</v>
-      </c>
-      <c r="I48" s="32">
+      <c r="H48" s="23">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7">
         <v>33</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="14">
         <v>47</v>
       </c>
-      <c r="K48" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="37" customFormat="1">
-      <c r="A49" s="32">
+      <c r="K48" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="16" customFormat="1">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="7">
         <v>1615852800</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="7">
         <v>1616428799</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="34" t="s">
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H49" s="35">
-        <v>1</v>
-      </c>
-      <c r="I49" s="32">
+      <c r="H49" s="23">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7">
         <v>34</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="14">
         <v>48</v>
       </c>
-      <c r="K49" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="16" customFormat="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="14"/>
+      <c r="K49" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="37" customFormat="1">
+      <c r="A50" s="32">
+        <v>49</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="32">
+        <v>1616457600</v>
+      </c>
+      <c r="D50" s="32">
+        <v>1617033599</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="35">
+        <v>1</v>
+      </c>
+      <c r="I50" s="32">
+        <v>35</v>
+      </c>
+      <c r="J50" s="36">
+        <v>49</v>
+      </c>
+      <c r="K50" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="37" customFormat="1">
+      <c r="A51" s="32">
+        <v>50</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C51" s="32">
+        <v>1616457600</v>
+      </c>
+      <c r="D51" s="32">
+        <v>1617033599</v>
+      </c>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="35">
+        <v>1</v>
+      </c>
+      <c r="I51" s="32">
+        <v>36</v>
+      </c>
+      <c r="J51" s="36">
+        <v>50</v>
+      </c>
+      <c r="K51" s="37">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4019,10 +4091,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4417,25 +4489,47 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="32" customFormat="1">
-      <c r="A34" s="32">
+    <row r="34" spans="1:3" s="7" customFormat="1">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="15" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="32" customFormat="1">
-      <c r="A35" s="32">
+    <row r="35" spans="1:3" s="7" customFormat="1">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="32" customFormat="1">
+      <c r="A36" s="32">
+        <v>35</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="32" customFormat="1">
+      <c r="A37" s="32">
+        <v>36</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="34" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4449,13 +4543,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M295"/>
+  <dimension ref="A1:M311"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G294" sqref="G294"/>
+      <selection pane="bottomRight" activeCell="E301" sqref="E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11643,411 +11737,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:10" s="32" customFormat="1">
+    <row r="280" spans="1:10" s="7" customFormat="1">
       <c r="A280" s="7">
         <v>279</v>
       </c>
-      <c r="B280" s="38">
+      <c r="B280" s="19">
         <v>47</v>
       </c>
-      <c r="C280" s="38">
-        <v>1</v>
-      </c>
-      <c r="D280" s="41" t="s">
+      <c r="C280" s="19">
+        <v>1</v>
+      </c>
+      <c r="D280" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="E280" s="38" t="s">
+      <c r="E280" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F280" s="39"/>
-      <c r="G280" s="39"/>
-      <c r="H280" s="39" t="s">
+      <c r="F280" s="20"/>
+      <c r="G280" s="20"/>
+      <c r="H280" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="J280" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" s="32" customFormat="1">
+      <c r="J280" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" s="7" customFormat="1">
       <c r="A281" s="7">
         <v>280</v>
       </c>
-      <c r="B281" s="38">
+      <c r="B281" s="19">
         <v>47</v>
       </c>
-      <c r="C281" s="38">
+      <c r="C281" s="19">
         <v>2</v>
       </c>
-      <c r="D281" s="41" t="s">
+      <c r="D281" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="E281" s="38" t="s">
+      <c r="E281" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="F281" s="39"/>
-      <c r="G281" s="39"/>
-      <c r="H281" s="39" t="s">
+      <c r="F281" s="20"/>
+      <c r="G281" s="20"/>
+      <c r="H281" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="J281" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" s="32" customFormat="1">
+      <c r="J281" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" s="7" customFormat="1">
       <c r="A282" s="7">
         <v>281</v>
       </c>
-      <c r="B282" s="38">
+      <c r="B282" s="19">
         <v>47</v>
       </c>
-      <c r="C282" s="38">
+      <c r="C282" s="19">
         <v>3</v>
       </c>
-      <c r="D282" s="38" t="s">
+      <c r="D282" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E282" s="38" t="s">
+      <c r="E282" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="G282" s="39"/>
-      <c r="H282" s="39" t="s">
+      <c r="G282" s="20"/>
+      <c r="H282" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="J282" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="J282" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A283" s="7">
         <v>282</v>
       </c>
-      <c r="B283" s="38">
+      <c r="B283" s="19">
         <v>47</v>
       </c>
-      <c r="C283" s="38">
+      <c r="C283" s="19">
         <v>4</v>
       </c>
-      <c r="D283" s="38" t="s">
+      <c r="D283" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E283" s="38"/>
-      <c r="F283" s="40" t="s">
+      <c r="E283" s="19"/>
+      <c r="F283" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="G283" s="39" t="s">
+      <c r="G283" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="H283" s="39" t="s">
+      <c r="H283" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="J283" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" s="32" customFormat="1">
+      <c r="J283" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" s="7" customFormat="1">
       <c r="A284" s="7">
         <v>283</v>
       </c>
-      <c r="B284" s="38">
+      <c r="B284" s="19">
         <v>47</v>
       </c>
-      <c r="C284" s="38">
+      <c r="C284" s="19">
         <v>5</v>
       </c>
-      <c r="D284" s="38" t="s">
+      <c r="D284" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E284" s="38"/>
-      <c r="F284" s="39" t="s">
+      <c r="E284" s="19"/>
+      <c r="F284" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="G284" s="39" t="s">
+      <c r="G284" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H284" s="34" t="s">
+      <c r="H284" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="285" spans="1:10" s="32" customFormat="1">
+    <row r="285" spans="1:10" s="7" customFormat="1">
       <c r="A285" s="7">
         <v>284</v>
       </c>
-      <c r="B285" s="38">
+      <c r="B285" s="19">
         <v>47</v>
       </c>
-      <c r="C285" s="38">
+      <c r="C285" s="19">
         <v>6</v>
       </c>
-      <c r="D285" s="38" t="s">
+      <c r="D285" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E285" s="38" t="s">
+      <c r="E285" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="F285" s="39"/>
-      <c r="G285" s="39"/>
-      <c r="H285" s="34" t="s">
+      <c r="F285" s="20"/>
+      <c r="G285" s="20"/>
+      <c r="H285" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J285" s="32">
+      <c r="J285" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:10" s="32" customFormat="1">
+    <row r="286" spans="1:10" s="7" customFormat="1">
       <c r="A286" s="7">
         <v>285</v>
       </c>
-      <c r="B286" s="38">
+      <c r="B286" s="19">
         <v>47</v>
       </c>
-      <c r="C286" s="38">
+      <c r="C286" s="19">
         <v>7</v>
       </c>
-      <c r="D286" s="38" t="s">
+      <c r="D286" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E286" s="38"/>
-      <c r="F286" s="34" t="s">
+      <c r="E286" s="19"/>
+      <c r="F286" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="G286" s="39" t="s">
+      <c r="G286" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="H286" s="34" t="s">
+      <c r="H286" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="J286" s="32">
+      <c r="J286" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:10" s="32" customFormat="1" ht="16.5">
+    <row r="287" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A287" s="7">
         <v>286</v>
       </c>
-      <c r="B287" s="38">
+      <c r="B287" s="19">
         <v>47</v>
       </c>
-      <c r="C287" s="38">
+      <c r="C287" s="19">
         <v>8</v>
       </c>
-      <c r="D287" s="38" t="s">
+      <c r="D287" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E287" s="38"/>
-      <c r="F287" s="40" t="s">
+      <c r="E287" s="19"/>
+      <c r="F287" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="G287" s="39" t="s">
+      <c r="G287" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="H287" s="39" t="s">
+      <c r="H287" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="J287" s="32">
+      <c r="J287" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:10" s="32" customFormat="1">
+    <row r="288" spans="1:10" s="7" customFormat="1">
       <c r="A288" s="7">
         <v>287</v>
       </c>
-      <c r="B288" s="38">
+      <c r="B288" s="19">
         <v>48</v>
       </c>
-      <c r="C288" s="38">
-        <v>1</v>
-      </c>
-      <c r="D288" s="38" t="s">
+      <c r="C288" s="19">
+        <v>1</v>
+      </c>
+      <c r="D288" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="E288" s="38" t="s">
+      <c r="E288" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F288" s="39"/>
-      <c r="G288" s="39"/>
-      <c r="H288" s="39" t="s">
+      <c r="F288" s="20"/>
+      <c r="G288" s="20"/>
+      <c r="H288" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="J288" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" s="32" customFormat="1">
+      <c r="J288" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" s="7" customFormat="1">
       <c r="A289" s="7">
         <v>288</v>
       </c>
-      <c r="B289" s="38">
+      <c r="B289" s="19">
         <v>48</v>
       </c>
-      <c r="C289" s="38">
+      <c r="C289" s="19">
         <v>2</v>
       </c>
-      <c r="D289" s="38" t="s">
+      <c r="D289" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="E289" s="38" t="s">
+      <c r="E289" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="F289" s="39"/>
-      <c r="G289" s="39"/>
-      <c r="H289" s="39" t="s">
+      <c r="F289" s="20"/>
+      <c r="G289" s="20"/>
+      <c r="H289" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="J289" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" s="32" customFormat="1">
+      <c r="J289" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" s="7" customFormat="1">
       <c r="A290" s="7">
         <v>289</v>
       </c>
-      <c r="B290" s="38">
+      <c r="B290" s="19">
         <v>48</v>
       </c>
-      <c r="C290" s="38">
+      <c r="C290" s="19">
         <v>3</v>
       </c>
-      <c r="D290" s="38" t="s">
+      <c r="D290" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E290" s="38" t="s">
+      <c r="E290" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="G290" s="39"/>
-      <c r="H290" s="39" t="s">
+      <c r="G290" s="20"/>
+      <c r="H290" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="J290" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="J290" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A291" s="7">
         <v>290</v>
       </c>
-      <c r="B291" s="38">
+      <c r="B291" s="19">
         <v>48</v>
       </c>
-      <c r="C291" s="38">
+      <c r="C291" s="19">
         <v>4</v>
       </c>
-      <c r="D291" s="38" t="s">
+      <c r="D291" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E291" s="38"/>
-      <c r="F291" s="40" t="s">
+      <c r="E291" s="19"/>
+      <c r="F291" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="G291" s="39" t="s">
+      <c r="G291" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="H291" s="39" t="s">
+      <c r="H291" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="J291" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" s="32" customFormat="1">
+      <c r="J291" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" s="7" customFormat="1">
       <c r="A292" s="7">
         <v>291</v>
       </c>
-      <c r="B292" s="38">
+      <c r="B292" s="19">
         <v>48</v>
       </c>
-      <c r="C292" s="38">
+      <c r="C292" s="19">
         <v>5</v>
       </c>
-      <c r="D292" s="38" t="s">
+      <c r="D292" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E292" s="38"/>
-      <c r="F292" s="39" t="s">
+      <c r="E292" s="19"/>
+      <c r="F292" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="G292" s="39" t="s">
+      <c r="G292" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H292" s="34" t="s">
+      <c r="H292" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="293" spans="1:10" s="32" customFormat="1">
+    <row r="293" spans="1:10" s="7" customFormat="1">
       <c r="A293" s="7">
         <v>292</v>
       </c>
-      <c r="B293" s="38">
+      <c r="B293" s="19">
         <v>48</v>
       </c>
-      <c r="C293" s="38">
+      <c r="C293" s="19">
         <v>6</v>
       </c>
-      <c r="D293" s="38" t="s">
+      <c r="D293" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E293" s="38" t="s">
+      <c r="E293" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="F293" s="39"/>
-      <c r="G293" s="39"/>
-      <c r="H293" s="34" t="s">
+      <c r="F293" s="20"/>
+      <c r="G293" s="20"/>
+      <c r="H293" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J293" s="32">
+      <c r="J293" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:10" s="32" customFormat="1">
+    <row r="294" spans="1:10" s="7" customFormat="1">
       <c r="A294" s="7">
         <v>293</v>
       </c>
-      <c r="B294" s="38">
+      <c r="B294" s="19">
         <v>48</v>
       </c>
-      <c r="C294" s="38">
+      <c r="C294" s="19">
         <v>7</v>
       </c>
-      <c r="D294" s="38" t="s">
+      <c r="D294" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E294" s="38"/>
-      <c r="F294" s="34" t="s">
+      <c r="E294" s="19"/>
+      <c r="F294" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="G294" s="39" t="s">
+      <c r="G294" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="H294" s="34" t="s">
+      <c r="H294" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="J294" s="32">
+      <c r="J294" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:10" s="32" customFormat="1" ht="16.5">
+    <row r="295" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A295" s="7">
         <v>294</v>
       </c>
-      <c r="B295" s="38">
+      <c r="B295" s="19">
         <v>48</v>
       </c>
-      <c r="C295" s="38">
+      <c r="C295" s="19">
         <v>8</v>
       </c>
-      <c r="D295" s="38" t="s">
+      <c r="D295" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E295" s="38"/>
-      <c r="F295" s="40" t="s">
+      <c r="E295" s="19"/>
+      <c r="F295" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="G295" s="39" t="s">
+      <c r="G295" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="H295" s="39" t="s">
+      <c r="H295" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="J295" s="32">
+      <c r="J295" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" s="32" customFormat="1">
+      <c r="A296" s="7">
+        <v>295</v>
+      </c>
+      <c r="B296" s="38">
+        <v>49</v>
+      </c>
+      <c r="C296" s="38">
+        <v>1</v>
+      </c>
+      <c r="D296" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E296" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="F296" s="39"/>
+      <c r="G296" s="39"/>
+      <c r="H296" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="J296" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" s="32" customFormat="1">
+      <c r="A297" s="7">
+        <v>296</v>
+      </c>
+      <c r="B297" s="38">
+        <v>49</v>
+      </c>
+      <c r="C297" s="38">
+        <v>2</v>
+      </c>
+      <c r="D297" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E297" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="F297" s="39"/>
+      <c r="G297" s="39"/>
+      <c r="H297" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J297" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" s="32" customFormat="1">
+      <c r="A298" s="7">
+        <v>297</v>
+      </c>
+      <c r="B298" s="38">
+        <v>49</v>
+      </c>
+      <c r="C298" s="38">
+        <v>3</v>
+      </c>
+      <c r="D298" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E298" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="G298" s="39"/>
+      <c r="H298" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J298" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A299" s="7">
+        <v>298</v>
+      </c>
+      <c r="B299" s="38">
+        <v>49</v>
+      </c>
+      <c r="C299" s="38">
+        <v>4</v>
+      </c>
+      <c r="D299" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E299" s="38"/>
+      <c r="F299" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G299" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H299" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="J299" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" s="32" customFormat="1">
+      <c r="A300" s="7">
+        <v>299</v>
+      </c>
+      <c r="B300" s="38">
+        <v>49</v>
+      </c>
+      <c r="C300" s="38">
+        <v>5</v>
+      </c>
+      <c r="D300" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E300" s="38"/>
+      <c r="F300" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G300" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H300" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" s="32" customFormat="1">
+      <c r="A301" s="7">
+        <v>300</v>
+      </c>
+      <c r="B301" s="38">
+        <v>49</v>
+      </c>
+      <c r="C301" s="38">
+        <v>6</v>
+      </c>
+      <c r="D301" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E301" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="F301" s="39"/>
+      <c r="G301" s="39"/>
+      <c r="H301" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J301" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" s="32" customFormat="1">
+      <c r="A302" s="7">
+        <v>301</v>
+      </c>
+      <c r="B302" s="38">
+        <v>49</v>
+      </c>
+      <c r="C302" s="38">
+        <v>7</v>
+      </c>
+      <c r="D302" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E302" s="38"/>
+      <c r="F302" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="G302" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="H302" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="J302" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A303" s="7">
+        <v>302</v>
+      </c>
+      <c r="B303" s="38">
+        <v>49</v>
+      </c>
+      <c r="C303" s="38">
+        <v>8</v>
+      </c>
+      <c r="D303" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="E303" s="38"/>
+      <c r="F303" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G303" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H303" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J303" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" s="32" customFormat="1">
+      <c r="A304" s="7">
+        <v>303</v>
+      </c>
+      <c r="B304" s="38">
+        <v>50</v>
+      </c>
+      <c r="C304" s="38">
+        <v>1</v>
+      </c>
+      <c r="D304" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E304" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="F304" s="39"/>
+      <c r="G304" s="39"/>
+      <c r="H304" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="J304" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" s="32" customFormat="1">
+      <c r="A305" s="7">
+        <v>304</v>
+      </c>
+      <c r="B305" s="38">
+        <v>50</v>
+      </c>
+      <c r="C305" s="38">
+        <v>2</v>
+      </c>
+      <c r="D305" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="E305" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="F305" s="39"/>
+      <c r="G305" s="39"/>
+      <c r="H305" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J305" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" s="32" customFormat="1">
+      <c r="A306" s="7">
+        <v>305</v>
+      </c>
+      <c r="B306" s="38">
+        <v>50</v>
+      </c>
+      <c r="C306" s="38">
+        <v>3</v>
+      </c>
+      <c r="D306" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E306" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="G306" s="39"/>
+      <c r="H306" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J306" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A307" s="7">
+        <v>306</v>
+      </c>
+      <c r="B307" s="38">
+        <v>50</v>
+      </c>
+      <c r="C307" s="38">
+        <v>4</v>
+      </c>
+      <c r="D307" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E307" s="38"/>
+      <c r="F307" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G307" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H307" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="J307" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" s="32" customFormat="1">
+      <c r="A308" s="7">
+        <v>307</v>
+      </c>
+      <c r="B308" s="38">
+        <v>50</v>
+      </c>
+      <c r="C308" s="38">
+        <v>5</v>
+      </c>
+      <c r="D308" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E308" s="38"/>
+      <c r="F308" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="G308" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H308" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" s="32" customFormat="1">
+      <c r="A309" s="7">
+        <v>308</v>
+      </c>
+      <c r="B309" s="38">
+        <v>50</v>
+      </c>
+      <c r="C309" s="38">
+        <v>6</v>
+      </c>
+      <c r="D309" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E309" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="F309" s="39"/>
+      <c r="G309" s="39"/>
+      <c r="H309" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J309" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" s="32" customFormat="1">
+      <c r="A310" s="7">
+        <v>309</v>
+      </c>
+      <c r="B310" s="38">
+        <v>50</v>
+      </c>
+      <c r="C310" s="38">
+        <v>7</v>
+      </c>
+      <c r="D310" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E310" s="38"/>
+      <c r="F310" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="G310" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="H310" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="J310" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A311" s="7">
+        <v>310</v>
+      </c>
+      <c r="B311" s="38">
+        <v>50</v>
+      </c>
+      <c r="C311" s="38">
+        <v>8</v>
+      </c>
+      <c r="D311" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E311" s="38"/>
+      <c r="F311" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G311" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H311" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J311" s="32">
         <v>3</v>
       </c>
     </row>
@@ -12165,7 +12667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/config_3.23/activity_exchange_server.xlsx
+++ b/config_3.23/activity_exchange_server.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="397">
   <si>
     <t>id|</t>
   </si>
@@ -1885,15 +1885,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>vivo收集</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>美的微波炉</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4546,10 +4550,10 @@
   <dimension ref="A1:M311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E301" sqref="E301"/>
+      <selection pane="bottomRight" activeCell="F306" sqref="F306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12184,7 +12188,7 @@
         <v>353</v>
       </c>
       <c r="E297" s="38" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F297" s="39"/>
       <c r="G297" s="39"/>
@@ -12209,7 +12213,7 @@
         <v>130</v>
       </c>
       <c r="E298" s="38" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G298" s="39"/>
       <c r="H298" s="39" t="s">
@@ -12284,7 +12288,7 @@
         <v>130</v>
       </c>
       <c r="E301" s="38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F301" s="39"/>
       <c r="G301" s="39"/>
@@ -12388,7 +12392,7 @@
         <v>320</v>
       </c>
       <c r="E305" s="38" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F305" s="39"/>
       <c r="G305" s="39"/>
@@ -12413,7 +12417,7 @@
         <v>131</v>
       </c>
       <c r="E306" s="38" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G306" s="39"/>
       <c r="H306" s="39" t="s">
@@ -12488,7 +12492,7 @@
         <v>131</v>
       </c>
       <c r="E309" s="38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F309" s="39"/>
       <c r="G309" s="39"/>
